--- a/HANMISYSTEM/docs/deliveryorder.xlsx
+++ b/HANMISYSTEM/docs/deliveryorder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LinkTot_proj\HANMISYSTEM\HANMISYSTEM\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phdev\source\repos\vuphuc174\HANMISYSTEM\HANMISYSTEM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DA360-1094-4CD1-A198-E280E56FDB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380E060E-3811-45FD-8022-7FEC22B62964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VC" sheetId="6" r:id="rId1"/>
@@ -611,7 +611,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -679,25 +679,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,10 +703,10 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,22 +715,22 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -754,188 +748,137 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2548,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3133,68 +3076,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="C3" s="2"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="H4" s="79"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="101">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89">
         <f ca="1">NOW()</f>
-        <v>44060.394253356484</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
+        <v>44860.698672453706</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="55"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -3202,40 +3145,40 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="J10" s="73"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1">
       <c r="A11" s="21" t="s">
@@ -3244,7 +3187,7 @@
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -3253,277 +3196,275 @@
       <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="K12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
       <c r="A14" s="23"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
       <c r="A15" s="23"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="23"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="23"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
     </row>
     <row r="28" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="51" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="51" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="50" t="s">
+      <c r="E29" s="87"/>
+      <c r="F29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="85"/>
-    </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" ht="12.75">
-      <c r="A30" s="84" t="s">
+      <c r="H29" s="83"/>
+    </row>
+    <row r="30" spans="1:8" s="43" customFormat="1" ht="12.75">
+      <c r="A30" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="50" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="85"/>
-    </row>
-    <row r="31" spans="1:8" s="45" customFormat="1">
+      <c r="H30" s="83"/>
+    </row>
+    <row r="31" spans="1:8" s="43" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="47"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="86"/>
+      <c r="H31" s="84"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B32" s="47"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="47"/>
+      <c r="B34" s="45"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="47"/>
+      <c r="B35" s="45"/>
     </row>
     <row r="38" spans="2:2" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -3535,17 +3476,19 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4145,20 +4088,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="C3" s="2"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1"/>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
@@ -4169,13 +4112,13 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -4185,23 +4128,23 @@
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4226,36 +4169,36 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="103"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="36" customHeight="1">
       <c r="A11" s="21" t="s">
@@ -4273,13 +4216,13 @@
       <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="23">
@@ -4288,286 +4231,306 @@
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>200</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="K12" s="68" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="K12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="57"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>2</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>700</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="K13" s="68" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="K13" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="K14" s="68" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="K14" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="K15" s="68" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="K15" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="K16" s="68" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="K16" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1">
       <c r="A25" s="23"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="83"/>
+      <c r="C27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="1:11" s="45" customFormat="1">
+      <c r="E29" s="82"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" s="43" customFormat="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="47"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="85"/>
-    </row>
-    <row r="31" spans="1:11" s="45" customFormat="1">
+      <c r="H30" s="83"/>
+    </row>
+    <row r="31" spans="1:11" s="43" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="47"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B32" s="47"/>
+      <c r="B32" s="45"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="86" t="s">
+      <c r="G32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="47"/>
+      <c r="B34" s="45"/>
     </row>
     <row r="38" spans="2:2" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="D3:E3"/>
@@ -4581,29 +4544,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5201,20 +5141,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="C3" s="2"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1"/>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
@@ -5225,13 +5165,13 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -5241,27 +5181,27 @@
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -5269,49 +5209,49 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="62" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="103"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:16" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="36" customHeight="1">
       <c r="A11" s="21" t="s">
@@ -5329,13 +5269,13 @@
       <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="23">
@@ -5344,295 +5284,272 @@
       <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>3000</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
       <c r="M12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="57"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="M13" s="75" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="M13" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="M14" s="76" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="M14" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="90" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="23"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="65" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" ht="12.75">
-      <c r="A30" s="85" t="s">
+      <c r="E29" s="83"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" s="43" customFormat="1" ht="12.75">
+      <c r="A30" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="64" t="s">
+      <c r="E30" s="87"/>
+      <c r="F30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="85"/>
-    </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" ht="12.75">
-      <c r="A31" s="84" t="s">
+      <c r="H30" s="83"/>
+    </row>
+    <row r="31" spans="1:8" s="43" customFormat="1" ht="12.75">
+      <c r="A31" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="82"/>
+      <c r="C31" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="64" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B32" s="47"/>
+      <c r="B32" s="45"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="86" t="s">
+      <c r="G32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="47"/>
+      <c r="B33" s="45"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="47"/>
+      <c r="B34" s="45"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="47"/>
+      <c r="B35" s="45"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="47"/>
+      <c r="B36" s="45"/>
     </row>
     <row r="38" spans="2:2" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="D3:E3"/>
@@ -5646,6 +5563,29 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
